--- a/all/Favorite_Place.xlsx
+++ b/all/Favorite_Place.xlsx
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19</v>
-      </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/all/Favorite_Place.xlsx
+++ b/all/Favorite_Place.xlsx
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
